--- a/ApplicationModules/ValveTiming/Pad0C_ValveGrouping.xlsx
+++ b/ApplicationModules/ValveTiming/Pad0C_ValveGrouping.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10125"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/MATLAB/MDRT/Valve Timing Script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Documents/MATLAB/MDRT/ApplicationModules/ValveTiming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A769C0C-3638-404E-8C69-CB84E3DE1579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8E0A37-70B0-D749-B819-390C564B2BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="800" windowWidth="18900" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="800" windowWidth="38000" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$D$2:$D$46</definedName>
+    <definedName name="BOM_TO_SIZE">Table2[]</definedName>
+    <definedName name="connection_from_find">_xlfn.LAMBDA(_xlpm.findNum, VLOOKUP(_xlpm.findNum,Table1[],4))</definedName>
+    <definedName name="diameter_from_connection">_xlfn.LAMBDA(_xlpm.connection, INDEX(Table2[Size],MATCH(_xlpm.connection,Table2[BOM Connection])))</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">Requirements!$H$4</definedName>
+    <definedName name="size_from_connection">_xlfn.LAMBDA(_xlpm.con,INDEX(Table2[Size],MATCH(_xlpm.con,Table2[BOM Connection],0)))</definedName>
+    <definedName name="Table_normal_req">Table4[]</definedName>
+    <definedName name="timing_from_find">_xlfn.LAMBDA(_xlpm.findNum, timing_from_size(size_from_connection(connection_from_find(_xlpm.findNum))))</definedName>
+    <definedName name="timing_from_size">_xlfn.LAMBDA(_xlpm.size, INDEX(Table4[[Open_Min]:[Close_Max]],MATCH(_xlpm.size, Table4[Size],0),0))</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +48,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="135">
   <si>
     <t>Valve FN</t>
   </si>
@@ -189,13 +224,268 @@
   </si>
   <si>
     <t>TRUE State Signal</t>
+  </si>
+  <si>
+    <t>Valve, Ball</t>
+  </si>
+  <si>
+    <t>CH4 Primary Ignitor Supply Discrete Valve</t>
+  </si>
+  <si>
+    <t>1/2" Compression</t>
+  </si>
+  <si>
+    <t>GHe Source Pressure Supply Discrete Valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4" </t>
+  </si>
+  <si>
+    <t>GHe Stage 1 Anti-Geysering Low Flow Discrete Control Valve</t>
+  </si>
+  <si>
+    <t>GHe Stage 1 Anti-Geysering High Flow Discrete Control Valve</t>
+  </si>
+  <si>
+    <t>MARS C3 LO2 Pressure Builder Discrete Control Valve</t>
+  </si>
+  <si>
+    <t>1.5" #150 Flange</t>
+  </si>
+  <si>
+    <t>MARS C2 Tank Discrete Control Vent Valve</t>
+  </si>
+  <si>
+    <t>1" #150 Flange</t>
+  </si>
+  <si>
+    <t>MARS C2 LO2 Pressure Builder Discrete Control Valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARS C3 Tank Discrete Control Valve </t>
+  </si>
+  <si>
+    <t>MARS C2 LO2 Supply to Flow Control Skid Discrete Control Valve</t>
+  </si>
+  <si>
+    <t>3" Flanged</t>
+  </si>
+  <si>
+    <t>MARS C3 LO2 Supply to Flow Control Skid Discrete Control Valve</t>
+  </si>
+  <si>
+    <t>MARS C2 Bypass to PMP-02C691</t>
+  </si>
+  <si>
+    <t>MARS C3 Bypass to PMP-02C692</t>
+  </si>
+  <si>
+    <t>LO2 Flow Control Skid Return Line Discrete Control Vent Valve</t>
+  </si>
+  <si>
+    <t>LO2 S1 Umbilical Discrete Control Vent Valve</t>
+  </si>
+  <si>
+    <t>LO2 S2 Umbilical Interface Discrete Control Vent Valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LO2 Flow Control Skid Outlet Primary Discrete Control Valve </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LO2 Flow Control Skid Outlet Redundant Discrete Control Valve </t>
+  </si>
+  <si>
+    <t>LO2 Dump Line Discrete Control Vent Valve</t>
+  </si>
+  <si>
+    <t>LO2 PMP-02C692 Return Line Discrete Control Vent Valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LO2 PMP-02C692 Outlet Primary Discrete Control Valve </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LO2 PMP-02C692 Outlet Redundant Discrete Control Valve </t>
+  </si>
+  <si>
+    <t>Discrete Isolation Valve for Return to MARS C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2" Flanged </t>
+  </si>
+  <si>
+    <t>Discrete Isolation for Return to MARS C3</t>
+  </si>
+  <si>
+    <t>Main Fill Line Initial Discrete Valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2" </t>
+  </si>
+  <si>
+    <t>Filter Skid Inlet Discrete Valve</t>
+  </si>
+  <si>
+    <t>Filter Skid Outlet Discrete Valve</t>
+  </si>
+  <si>
+    <t>Circulation Return Discrete Valve</t>
+  </si>
+  <si>
+    <t>De-tanking Filter Bypass Discrete Valve</t>
+  </si>
+  <si>
+    <t>Detanking Pump Bypass Discrete Valve</t>
+  </si>
+  <si>
+    <t>KERO Tank Return Discrete Valve</t>
+  </si>
+  <si>
+    <t>Return Circulation Discrete Valve</t>
+  </si>
+  <si>
+    <t>LN2 Panel Commodity Supply Discrete Control Valve</t>
+  </si>
+  <si>
+    <t>3/4" NPT</t>
+  </si>
+  <si>
+    <t>GOX Ignitor Primary Supply Discrete Valve</t>
+  </si>
+  <si>
+    <t>Valve, Discrete Three Way</t>
+  </si>
+  <si>
+    <t>3-way Swagelok Valve</t>
+  </si>
+  <si>
+    <t>1/4" Compression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Future Item) Flame Trench Curtain Discrete Ball Valve </t>
+  </si>
+  <si>
+    <t>Valve, Butterfly</t>
+  </si>
+  <si>
+    <t>South Side Rainbirds Butterfly Valve</t>
+  </si>
+  <si>
+    <t>6"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete Ball Valve </t>
+  </si>
+  <si>
+    <t>8"</t>
+  </si>
+  <si>
+    <t>North Side Rainbirds Butterfly Valve</t>
+  </si>
+  <si>
+    <t>CO2 Panel Primary Discrete Valve</t>
+  </si>
+  <si>
+    <t>1" NPT Threaded</t>
+  </si>
+  <si>
+    <t>CO2 Panel Secondary Discrete Valve</t>
+  </si>
+  <si>
+    <t>S2 KERO Purge Regulator Supply 3-way Valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KERO GN2 Purge S2 Ball Valve Isolation </t>
+  </si>
+  <si>
+    <t>S1 KERO Tank Purge 3-way Selector Discrete Valve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP-1 GN2 Purge S1 Ball Valve Isolation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Flow Isolation Ball Valve </t>
+  </si>
+  <si>
+    <t>3/4" Compression</t>
+  </si>
+  <si>
+    <t>04C342</t>
+  </si>
+  <si>
+    <t>01C304</t>
+  </si>
+  <si>
+    <t>41C305</t>
+  </si>
+  <si>
+    <t>Find</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Valve_Size</t>
+  </si>
+  <si>
+    <t>BOM Connection</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>GOX Butterfly</t>
+  </si>
+  <si>
+    <t>WDS Butterfly</t>
+  </si>
+  <si>
+    <t>15C</t>
+  </si>
+  <si>
+    <t>41C</t>
+  </si>
+  <si>
+    <t>Open_Min</t>
+  </si>
+  <si>
+    <t>Open_Max</t>
+  </si>
+  <si>
+    <t>Close_Min</t>
+  </si>
+  <si>
+    <t>Close_Max</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>connection from find</t>
+  </si>
+  <si>
+    <t>size from connection</t>
+  </si>
+  <si>
+    <t>timing from size</t>
+  </si>
+  <si>
+    <t>timing_from_find</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +501,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +548,11 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -249,34 +565,38 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -288,14 +608,426 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -306,6 +1038,140 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>17932</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4839491F-D115-AD0B-DBD4-FF3FA6E963B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22669500" y="4991100"/>
+          <a:ext cx="13619632" cy="5130800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{611E65C7-1F07-D24B-ABB2-BBC2D61288CE}" name="Table3" displayName="Table3" ref="A1:J44" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+  <autoFilter ref="A1:J44" xr:uid="{611E65C7-1F07-D24B-ABB2-BBC2D61288CE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
+    <sortCondition ref="B1:B44"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{638ECC2F-FC00-394B-AB29-829073FD95BD}" name="Valve Type" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{95B72D95-7126-2D4B-BD42-560378E2478B}" name="Valve FN" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{1C28C0B7-EB01-164F-BC1F-4AD0236C4ED4}" name="Open I/O" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{9063E8B3-5F15-DC4C-BA30-92C9AAD4F6D6}" name="Closed I/O" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{BB29291E-0D89-F244-AE14-AC9A7E43955A}" name="Command I/O" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{B03A0761-0C9D-7A43-BD9C-032D64245A32}" name="TRUE State Signal" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{B3C7DE10-4CF0-744E-AF56-5872B0CBD1CE}" name="Open_Min" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{F2C2894C-0FFC-CE44-945B-5AC19D5B6D2C}" name="Open_Max" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{B8195841-CBAB-374C-AD63-0BF72BDF04FF}" name="Close_Min" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{5556F2CA-6641-E448-831A-C2CE333008F3}" name="Close_Max" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{298D4EDF-DA51-EC44-9717-E0E35FFCB297}" name="Table1" displayName="Table1" ref="A1:F46" totalsRowShown="0" headerRowDxfId="23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F46">
+    <sortCondition ref="A1:A46"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A702FBF6-912F-844D-95E0-0E0AF170AE24}" name="Find"/>
+    <tableColumn id="2" xr3:uid="{429BA4B4-A157-A04B-AF7F-0E5FA003F2D8}" name="Component"/>
+    <tableColumn id="3" xr3:uid="{17D0EC8C-E9F3-A444-8699-7A4FED5184E0}" name="Desc"/>
+    <tableColumn id="4" xr3:uid="{B130B13B-B755-DE4B-B4C0-29A36437D8F2}" name="Connection"/>
+    <tableColumn id="5" xr3:uid="{774A9C8A-3E23-2641-94DE-21B4AEE9E95E}" name="Valve_Size" dataDxfId="22">
+      <calculatedColumnFormula array="1">size_from_connection(Table1[[#This Row],[Connection]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{270789F0-E690-4E43-9BF4-2487B6F0FA19}" name="Column1" dataDxfId="21">
+      <calculatedColumnFormula>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2250AD48-524E-5C41-BCB3-74EB75269E3C}" name="Table2" displayName="Table2" ref="H1:I14" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="H1:I14" xr:uid="{2250AD48-524E-5C41-BCB3-74EB75269E3C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DD69C03E-E9C0-B841-889E-763E9D6FDE90}" name="BOM Connection"/>
+    <tableColumn id="2" xr3:uid="{2831A891-2313-7343-A88D-B8DC091345E7}" name="Size"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2F36033-04E7-8948-8621-5FB2281A5E32}" name="Table4" displayName="Table4" ref="L1:P10" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="L1:P10" xr:uid="{A2F36033-04E7-8948-8621-5FB2281A5E32}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F07B81A4-5B58-024C-9E32-3D0CF4EB9132}" name="Size"/>
+    <tableColumn id="2" xr3:uid="{8F007D28-9431-8549-BCC3-830A60D10A0E}" name="Open_Min" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{A259F2DD-38A9-F742-B639-ED2F509BACAF}" name="Open_Max" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{D44346DB-C3C9-3E4B-B6E1-84C1BDEB4876}" name="Close_Min" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{80242C8E-9B00-7B43-8D86-B90E45BBE06F}" name="Close_Max" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,907 +1437,2943 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>794</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>795</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>793</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>301</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>308</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>288</v>
       </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>3</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>303</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>310</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>290</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>3</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>304</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>311</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>291</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>305</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>312</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>292</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>3</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>302</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>309</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>289</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>3</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>306</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>313</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>293</v>
       </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>3</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>528</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>529</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>287</v>
       </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>3</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>358</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>359</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>317</v>
       </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>3</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>376</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>377</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>355</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>3</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>360</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>361</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>319</v>
       </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>3</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>362</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>363</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>320</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>3</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>372</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>373</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>356</v>
       </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>10</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>364</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>365</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>351</v>
       </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>10</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>335</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>336</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>322</v>
       </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>3</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>343</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>344</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>382</v>
       </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>3</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>341</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>342</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>380</v>
       </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>3</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>337</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>338</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>323</v>
       </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>3</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>333</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>334</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>318</v>
       </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>3</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>345</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>346</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>384</v>
       </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>3</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>347</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>348</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>385</v>
       </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>3</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>349</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>350</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <v>386</v>
       </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>3</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>391</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>392</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>387</v>
       </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>3</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>370</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>371</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>354</v>
       </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>10</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>366</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>367</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>352</v>
       </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>10</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>393</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>394</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>388</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>3</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>339</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>340</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>379</v>
       </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>3</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>566</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>567</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>565</v>
       </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>3</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>517</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>518</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>5</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>3</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>519</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>520</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>1</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>3</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>600</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>601</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>599</v>
       </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>3</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0</v>
+      </c>
+      <c r="J32" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>607</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>608</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <v>606</v>
       </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <v>3</v>
+      </c>
+      <c r="I33" s="13">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>791</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>792</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>603</v>
       </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>3</v>
+      </c>
+      <c r="I34" s="13">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>570</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>571</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>569</v>
       </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>3</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>558</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>559</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>560</v>
       </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>3</v>
+      </c>
+      <c r="I36" s="13">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>576</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>577</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>575</v>
       </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>3</v>
+      </c>
+      <c r="I37" s="13">
+        <v>0</v>
+      </c>
+      <c r="J37" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>24</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>21</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>20</v>
       </c>
-      <c r="F38" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <v>3</v>
+      </c>
+      <c r="I38" s="13">
+        <v>0</v>
+      </c>
+      <c r="J38" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>25</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>23</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <v>22</v>
       </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <v>3</v>
+      </c>
+      <c r="I39" s="13">
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>542</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>543</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>284</v>
       </c>
-      <c r="F40" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>3</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>540</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>541</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <v>279</v>
       </c>
-      <c r="F41" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="H41" s="13">
+        <v>3</v>
+      </c>
+      <c r="I41" s="13">
+        <v>0</v>
+      </c>
+      <c r="J41" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="6">
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5">
         <v>534</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>535</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>449</v>
       </c>
-      <c r="F42" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13">
+        <v>2</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0</v>
+      </c>
+      <c r="J42" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>536</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>537</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <v>451</v>
       </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13">
+        <v>2</v>
+      </c>
+      <c r="I43" s="13">
+        <v>0</v>
+      </c>
+      <c r="J43" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="11">
         <v>538</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="11">
         <v>539</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="11">
         <v>452</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="11">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <v>2</v>
+      </c>
+      <c r="I44" s="13">
+        <v>0</v>
+      </c>
+      <c r="J44" s="13">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B8A275-4617-994E-A7F6-597473BB1D6B}">
+  <dimension ref="A1:P46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>2</v>
+      </c>
+      <c r="F2" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2">
+        <v>0.25</v>
+      </c>
+      <c r="L2">
+        <v>0.25</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <v>3</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0</v>
+      </c>
+      <c r="P2" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>2</v>
+      </c>
+      <c r="F3" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3">
+        <v>0.25</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>3</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" cm="1">
+        <f t="array" ref="E4">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>2</v>
+      </c>
+      <c r="F4" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>0.75</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>3</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>2</v>
+      </c>
+      <c r="F5" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5">
+        <v>0.75</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>3</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" cm="1">
+        <f t="array" ref="E6">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>2</v>
+      </c>
+      <c r="F6" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6">
+        <v>0.75</v>
+      </c>
+      <c r="L6">
+        <v>1.5</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>3</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" ref="E7">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>2</v>
+      </c>
+      <c r="F7" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>3</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" cm="1">
+        <f t="array" ref="E8">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>2</v>
+      </c>
+      <c r="F8" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>10</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" cm="1">
+        <f t="array" ref="E9">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>2</v>
+      </c>
+      <c r="F9" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9">
+        <v>1.5</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>10</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" cm="1">
+        <f t="array" ref="E10">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="F10" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>10</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" cm="1">
+        <f t="array" ref="E11">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" cm="1">
+        <f t="array" ref="E12">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="F12" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" cm="1">
+        <f t="array" ref="E13">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="M13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" cm="1">
+        <f t="array" ref="E14">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>3</v>
+      </c>
+      <c r="F14" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="N14" s="9">
+        <v>3</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" cm="1">
+        <f t="array" ref="E15">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>3</v>
+      </c>
+      <c r="F15" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>2</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" cm="1">
+        <f t="array" ref="E16">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="F16" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" cm="1">
+        <f t="array" ref="E17">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="F17" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" cm="1">
+        <f t="array" ref="E18">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="F18" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" cm="1">
+        <f t="array" ref="E19">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="F19" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" cm="1">
+        <f t="array" ref="E20">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="F20" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" cm="1">
+        <f t="array" ref="E21">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="F21" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" cm="1">
+        <f t="array" ref="E22">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="F22" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" cm="1">
+        <f t="array" ref="E23">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="F23" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" cm="1">
+        <f t="array" ref="E24">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1.5</v>
+      </c>
+      <c r="F24" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" cm="1">
+        <f t="array" ref="E25">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>3</v>
+      </c>
+      <c r="F25" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="str">
+        <f>VLOOKUP(H25,Table1[],4)</f>
+        <v>3" Flanged</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" cm="1">
+        <f t="array" ref="E26">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>3</v>
+      </c>
+      <c r="F26" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>INDEX(Table2[Size],MATCH(I25,Table2[BOM Connection]))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" cm="1">
+        <f t="array" ref="E27">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>2</v>
+      </c>
+      <c r="F27" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="9" cm="1">
+        <f t="array" ref="I27:L27">INDEX(M2:P10,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" cm="1">
+        <f t="array" ref="E28">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>2</v>
+      </c>
+      <c r="F28" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" cm="1">
+        <f t="array" ref="E29">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>0.75</v>
+      </c>
+      <c r="F29" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="9" cm="1">
+        <f t="array" ref="I29:L29">INDEX(Table4[[Open_Min]:[Close_Max]],3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" cm="1">
+        <f t="array" ref="E30">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>0.25</v>
+      </c>
+      <c r="F30" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" cm="1">
+        <f t="array" ref="E31">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>0.25</v>
+      </c>
+      <c r="F31" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" cm="1">
+        <f t="array" ref="E32">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>0.25</v>
+      </c>
+      <c r="F32" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" cm="1">
+        <f t="array" ref="E33">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="F33" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" cm="1">
+        <f t="array" ref="E34">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="F34" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I34" t="str" cm="1">
+        <f t="array" ref="I34">connection_from_find(Table1[[#This Row],[Find]])</f>
+        <v>1/2" Compression</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" cm="1">
+        <f t="array" ref="E35">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>0.25</v>
+      </c>
+      <c r="F35" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" cm="1">
+        <f t="array" ref="I35">size_from_connection(I34)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" cm="1">
+        <f t="array" ref="E36">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>0.75</v>
+      </c>
+      <c r="F36" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36" cm="1">
+        <f t="array" ref="I36:L36">timing_from_size(I35)</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" cm="1">
+        <f t="array" ref="E37">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="F37" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" cm="1">
+        <f t="array" ref="E38">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="F38" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" cm="1">
+        <f t="array" ref="E39">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" cm="1">
+        <f t="array" ref="E40">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+      <c r="H40" cm="1">
+        <f t="array" ref="H40:K40">timing_from_find(Table1[[#This Row],[Find]])</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" cm="1">
+        <f t="array" ref="E41">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="F41" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" cm="1">
+        <f t="array" ref="E42">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="F42" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E43" t="e" cm="1">
+        <f t="array" ref="E43">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F43" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" cm="1">
+        <f t="array" ref="E44">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>6</v>
+      </c>
+      <c r="F44" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" cm="1">
+        <f t="array" ref="E45">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>8</v>
+      </c>
+      <c r="F45" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46" cm="1">
+        <f t="array" ref="E46">size_from_connection(Table1[[#This Row],[Connection]])</f>
+        <v>6</v>
+      </c>
+      <c r="F46" t="b">
+        <f>ISERROR(MATCH(Table1[[#This Row],[Find]],Table3[Valve FN],0))</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" stopIfTrue="1" id="{A3320892-4123-F741-AA90-F46F9270784F}">
+            <xm:f>ISERROR(MATCH(A2,Sheet1!$B$2:$B$44,0))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A2:A46</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BED7EAA-FF0C-3147-BEEB-00E6D4E70EED}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" stopIfTrue="1" id="{731E2B5C-7F50-F344-A3C4-95DB57FC93D0}">
+            <xm:f>ISERROR(MATCH(A1,Sheet1!$B$2:$B$44,0))</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A1:A3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
